--- a/nVsTimeFastAnalysis.xlsx
+++ b/nVsTimeFastAnalysis.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="nVsTimeFast" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -35,11 +35,23 @@
   <si>
     <t>Mean Threshold (s)</t>
   </si>
+  <si>
+    <t>ln time fast</t>
+  </si>
+  <si>
+    <t>ln time slow</t>
+  </si>
+  <si>
+    <t>Logn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000000000000000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,8 +529,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -616,7 +629,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> (ms)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -706,25 +719,25 @@
             <c:numRef>
               <c:f>nVsTimeFast!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.066666667</c:v>
+                  <c:v>5.1593316666666701E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.133333333</c:v>
+                  <c:v>1.6457446666666699E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>6.4073630000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93333333299999999</c:v>
+                  <c:v>2.4615629333333299E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8333333329999997</c:v>
+                  <c:v>2.93852772666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.033333333000002</c:v>
+                  <c:v>0.21646161696666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,25 +798,25 @@
             <c:numRef>
               <c:f>nVsTimeFast!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>1.9319936666666699E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666667</c:v>
+                  <c:v>3.1854813333333302E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5666666669999998</c:v>
+                  <c:v>1.3467149333333301E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.266666666999999</c:v>
+                  <c:v>1.4728208E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>587.53333333299997</c:v>
+                  <c:v>0.51111871663333297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8929</c:v>
+                  <c:v>7.9292974847666597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,7 +912,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1049,7 +1062,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time Fast</a:t>
+              <a:t> Time Fast(ms)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1144,25 +1157,25 @@
             <c:numRef>
               <c:f>nVsTimeFast!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.066666667</c:v>
+                  <c:v>5.1593316666666701E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.133333333</c:v>
+                  <c:v>1.6457446666666699E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>6.4073630000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93333333299999999</c:v>
+                  <c:v>2.4615629333333299E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8333333329999997</c:v>
+                  <c:v>2.93852772666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.033333333000002</c:v>
+                  <c:v>0.21646161696666599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1271,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1373,7 +1386,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean Time Slow</a:t>
+              <a:t>Mean Time Slow (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1459,25 +1472,25 @@
             <c:numRef>
               <c:f>nVsTimeFast!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000000000000000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>1.9319936666666699E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666667</c:v>
+                  <c:v>3.1854813333333302E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5666666669999998</c:v>
+                  <c:v>1.3467149333333301E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.266666666999999</c:v>
+                  <c:v>1.4728208E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>587.53333333299997</c:v>
+                  <c:v>0.51111871663333297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8929</c:v>
+                  <c:v>7.9292974847666597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1586,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1731,6 +1744,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Threshold Fast</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1777,22 +1793,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59472000000000003</c:v>
+                  <c:v>0.57925333333333295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58875999999999995</c:v>
+                  <c:v>0.59565333333333303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59183666700000004</c:v>
+                  <c:v>0.59722666666666602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59205920000000001</c:v>
+                  <c:v>0.59264159999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59105600000000003</c:v>
+                  <c:v>0.59212226666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,6 +1823,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold slow</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1853,22 +1872,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.58733333300000001</c:v>
+                  <c:v>0.59066666666666601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58160000000000001</c:v>
+                  <c:v>0.59610666666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59242666700000002</c:v>
+                  <c:v>0.594359999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59617666700000005</c:v>
+                  <c:v>0.59609666666666605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59343253299999998</c:v>
+                  <c:v>0.59578559999999903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59300213300000004</c:v>
+                  <c:v>0.59389826666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,22 +2221,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.60599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59472000000000003</c:v>
+                  <c:v>0.57925333333333295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58875999999999995</c:v>
+                  <c:v>0.59565333333333303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59183666700000004</c:v>
+                  <c:v>0.59722666666666602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59205920000000001</c:v>
+                  <c:v>0.59264159999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59105600000000003</c:v>
+                  <c:v>0.59212226666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,22 +2536,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.58733333300000001</c:v>
+                  <c:v>0.59066666666666601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58160000000000001</c:v>
+                  <c:v>0.59610666666666601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59242666700000002</c:v>
+                  <c:v>0.594359999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59617666700000005</c:v>
+                  <c:v>0.59609666666666605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59343253299999998</c:v>
+                  <c:v>0.59578559999999903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59300213300000004</c:v>
+                  <c:v>0.59389826666666601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6048,16 +6067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>130385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6156,16 +6175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>450004</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1269</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206587</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133774</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>1269</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504190</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85935</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6192,16 +6211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>449157</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>290408</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>89747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>144357</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>599441</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>89747</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6228,16 +6247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>338666</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20108</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603249</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>64558</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32808</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6562,20 +6581,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6591,107 +6612,188 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1.066666667</v>
+      <c r="B2" s="1">
+        <v>5.1593316666666701E-4</v>
       </c>
-      <c r="C2">
-        <v>0.3</v>
+      <c r="C2" s="1">
+        <v>1.9319936666666699E-4</v>
       </c>
       <c r="D2">
-        <v>0.58499999999999996</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E2">
-        <v>0.58733333300000001</v>
+        <v>0.59066666666666601</v>
+      </c>
+      <c r="F2">
+        <f>LOG(B2,2)</f>
+        <v>-10.920528186698142</v>
+      </c>
+      <c r="G2">
+        <f>LOG(C2,2)</f>
+        <v>-12.337622014715082</v>
+      </c>
+      <c r="H2">
+        <f>LOG(A2,2)</f>
+        <v>3.3219280948873626</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>0.133333333</v>
+      <c r="B3" s="1">
+        <v>1.6457446666666699E-4</v>
       </c>
-      <c r="C3">
-        <v>0.366666667</v>
+      <c r="C3" s="1">
+        <v>3.1854813333333302E-4</v>
       </c>
       <c r="D3">
-        <v>0.59472000000000003</v>
+        <v>0.57925333333333295</v>
       </c>
       <c r="E3">
-        <v>0.58160000000000001</v>
+        <v>0.59610666666666601</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">LOG(B3,2)</f>
+        <v>-12.568971857099758</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">LOG(C3,2)</f>
+        <v>-11.616200996158495</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">LOG(A3,2)</f>
+        <v>4.6438561897747244</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
-      <c r="B4">
-        <v>0.4</v>
+      <c r="B4" s="1">
+        <v>6.4073630000000003E-4</v>
       </c>
-      <c r="C4">
-        <v>2.5666666669999998</v>
+      <c r="C4" s="1">
+        <v>1.3467149333333301E-3</v>
       </c>
       <c r="D4">
-        <v>0.58875999999999995</v>
+        <v>0.59565333333333303</v>
       </c>
       <c r="E4">
-        <v>0.59242666700000002</v>
+        <v>0.594359999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-10.607981652904797</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-9.5363397848570894</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>5.6438561897747244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100</v>
       </c>
-      <c r="B5">
-        <v>0.93333333299999999</v>
+      <c r="B5" s="1">
+        <v>2.4615629333333299E-3</v>
       </c>
-      <c r="C5">
-        <v>17.266666666999999</v>
+      <c r="C5" s="1">
+        <v>1.4728208E-2</v>
       </c>
       <c r="D5">
-        <v>0.59183666700000004</v>
+        <v>0.59722666666666602</v>
       </c>
       <c r="E5">
-        <v>0.59617666700000005</v>
+        <v>0.59609666666666605</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-8.6662096600812788</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-6.0852742832832343</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>6.6438561897747253</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>250</v>
       </c>
-      <c r="B6">
-        <v>4.8333333329999997</v>
+      <c r="B6" s="1">
+        <v>2.93852772666666E-2</v>
       </c>
-      <c r="C6">
-        <v>587.53333333299997</v>
+      <c r="C6" s="1">
+        <v>0.51111871663333297</v>
       </c>
       <c r="D6">
-        <v>0.59205920000000001</v>
+        <v>0.59264159999999999</v>
       </c>
       <c r="E6">
-        <v>0.59343253299999998</v>
+        <v>0.59578559999999903</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-5.0887626787423432</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-0.96826967259700769</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>7.965784284662087</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>500</v>
       </c>
-      <c r="B7">
-        <v>20.033333333000002</v>
+      <c r="B7" s="1">
+        <v>0.21646161696666599</v>
       </c>
-      <c r="C7">
-        <v>8929</v>
+      <c r="C7" s="1">
+        <v>7.9292974847666597</v>
       </c>
       <c r="D7">
-        <v>0.59105600000000003</v>
+        <v>0.59212226666666601</v>
       </c>
       <c r="E7">
-        <v>0.59300213300000004</v>
+        <v>0.59389826666666601</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-2.2078168663377236</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>2.987193052544717</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>8.965784284662087</v>
       </c>
     </row>
   </sheetData>

--- a/nVsTimeFastAnalysis.xlsx
+++ b/nVsTimeFastAnalysis.xlsx
@@ -6105,8 +6105,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -6584,7 +6584,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
